--- a/Salud/2.3.xlsx
+++ b/Salud/2.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/Tablas Madre/Salud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Salud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98AA52E-298E-284D-9212-6B5F751D348D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A603C-ECA2-4269-9EBC-B7436EEF8383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{C0182A6B-9F89-8848-8213-AEC29DB807E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C0182A6B-9F89-8848-8213-AEC29DB807E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1305">
   <si>
     <t>viernes</t>
   </si>
@@ -3956,6 +3956,12 @@
   </si>
   <si>
     <t>Cada 2 semanas</t>
+  </si>
+  <si>
+    <t>Farmacias de Trurno en Chile</t>
+  </si>
+  <si>
+    <t>Número</t>
   </si>
 </sst>
 </file>
@@ -4100,10 +4106,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4536,15 +4542,15 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.5" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>845</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>847</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>848</v>
       </c>
@@ -4583,7 +4589,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>849</v>
       </c>
@@ -4594,7 +4600,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>850</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>851</v>
       </c>
@@ -4616,7 +4622,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>852</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>853</v>
       </c>
@@ -4638,7 +4644,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>854</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>855</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>856</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>857</v>
       </c>
@@ -4682,7 +4688,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>858</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>859</v>
       </c>
@@ -4704,7 +4710,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>860</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>861</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>862</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>863</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>864</v>
       </c>
@@ -4759,7 +4765,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>865</v>
       </c>
@@ -4770,7 +4776,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>866</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>867</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>868</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>869</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>870</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>871</v>
       </c>
@@ -4818,7 +4824,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>872</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>873</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>874</v>
       </c>
@@ -4842,7 +4848,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>875</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>876</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>877</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>878</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>879</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>880</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>881</v>
       </c>
@@ -4898,7 +4904,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>882</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>883</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>884</v>
       </c>
@@ -4922,7 +4928,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>885</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>886</v>
       </c>
@@ -4938,7 +4944,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>887</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>888</v>
       </c>
@@ -4954,7 +4960,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>889</v>
       </c>
@@ -4962,7 +4968,7 @@
         <v>5103</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>890</v>
       </c>
@@ -4970,7 +4976,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>891</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>5105</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>892</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>5107</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>893</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>894</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>5201</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>895</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>896</v>
       </c>
@@ -5018,7 +5024,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>897</v>
       </c>
@@ -5026,7 +5032,7 @@
         <v>5303</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>898</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>899</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>900</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>901</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>902</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>903</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>904</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>905</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>5502</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>906</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>907</v>
       </c>
@@ -5106,7 +5112,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>908</v>
       </c>
@@ -5114,7 +5120,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>909</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>5601</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>910</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>911</v>
       </c>
@@ -5138,7 +5144,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>912</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>5604</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>913</v>
       </c>
@@ -5154,7 +5160,7 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>914</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>5606</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>915</v>
       </c>
@@ -5170,7 +5176,7 @@
         <v>5701</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>916</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>5702</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>917</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>918</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>919</v>
       </c>
@@ -5202,7 +5208,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>920</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>5706</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>921</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>922</v>
       </c>
@@ -5226,7 +5232,7 @@
         <v>5802</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>923</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>924</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>925</v>
       </c>
@@ -5250,7 +5256,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>926</v>
       </c>
@@ -5258,7 +5264,7 @@
         <v>6102</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>927</v>
       </c>
@@ -5266,7 +5272,7 @@
         <v>6103</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>928</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>6104</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>929</v>
       </c>
@@ -5282,7 +5288,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>930</v>
       </c>
@@ -5290,7 +5296,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>931</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>6107</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>932</v>
       </c>
@@ -5306,7 +5312,7 @@
         <v>6108</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>933</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>6109</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>934</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>6110</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>935</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>936</v>
       </c>
@@ -5338,7 +5344,7 @@
         <v>6112</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>937</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>6113</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>938</v>
       </c>
@@ -5354,7 +5360,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>939</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>6115</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>940</v>
       </c>
@@ -5370,7 +5376,7 @@
         <v>6116</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>941</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>942</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>943</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>6202</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>944</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>6203</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>945</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>6204</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>946</v>
       </c>
@@ -5418,7 +5424,7 @@
         <v>6205</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>947</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>6206</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>948</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>6301</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>949</v>
       </c>
@@ -5442,7 +5448,7 @@
         <v>6302</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>950</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>951</v>
       </c>
@@ -5458,7 +5464,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>952</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>953</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>6306</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>954</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>6307</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>955</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>956</v>
       </c>
@@ -5498,7 +5504,7 @@
         <v>6309</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>957</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>6310</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>958</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>7101</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>959</v>
       </c>
@@ -5522,7 +5528,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>960</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>7103</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>961</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>7104</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>962</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>7105</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>963</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>964</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>7107</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>965</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>966</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>967</v>
       </c>
@@ -5586,7 +5592,7 @@
         <v>7110</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>968</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>969</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>7202</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>970</v>
       </c>
@@ -5610,7 +5616,7 @@
         <v>7203</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>971</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>7301</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>972</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>7302</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>973</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>7303</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>974</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>7304</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>975</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>976</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>7306</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>977</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>7307</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>978</v>
       </c>
@@ -5674,7 +5680,7 @@
         <v>7308</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>979</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>7309</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>980</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>7401</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>981</v>
       </c>
@@ -5698,7 +5704,7 @@
         <v>7402</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>982</v>
       </c>
@@ -5706,7 +5712,7 @@
         <v>7403</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>983</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>7404</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>984</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>7405</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>985</v>
       </c>
@@ -5730,7 +5736,7 @@
         <v>7406</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>986</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>7407</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>987</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>7408</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>988</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>8101</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>989</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>8102</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>990</v>
       </c>
@@ -5770,7 +5776,7 @@
         <v>8103</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>991</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>8104</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>992</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>8105</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>993</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>8106</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>994</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>8107</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>995</v>
       </c>
@@ -5810,7 +5816,7 @@
         <v>8108</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>996</v>
       </c>
@@ -5818,7 +5824,7 @@
         <v>8109</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>997</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>998</v>
       </c>
@@ -5834,7 +5840,7 @@
         <v>8111</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>999</v>
       </c>
@@ -5842,7 +5848,7 @@
         <v>8112</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1000</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>8201</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1001</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1002</v>
       </c>
@@ -5866,7 +5872,7 @@
         <v>8203</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1003</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>8204</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1004</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>8205</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1005</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1006</v>
       </c>
@@ -5898,7 +5904,7 @@
         <v>8207</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1007</v>
       </c>
@@ -5906,7 +5912,7 @@
         <v>8301</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1008</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>8302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1009</v>
       </c>
@@ -5922,7 +5928,7 @@
         <v>8303</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1010</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>8304</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1011</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>8305</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1012</v>
       </c>
@@ -5946,7 +5952,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1013</v>
       </c>
@@ -5954,7 +5960,7 @@
         <v>8307</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1014</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>8308</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1015</v>
       </c>
@@ -5970,7 +5976,7 @@
         <v>8309</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1016</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>8310</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1017</v>
       </c>
@@ -5986,7 +5992,7 @@
         <v>8311</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1018</v>
       </c>
@@ -5994,7 +6000,7 @@
         <v>8312</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1019</v>
       </c>
@@ -6002,7 +6008,7 @@
         <v>8313</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1020</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>8314</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1021</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>9101</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1022</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>9102</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1023</v>
       </c>
@@ -6034,7 +6040,7 @@
         <v>9103</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1024</v>
       </c>
@@ -6042,7 +6048,7 @@
         <v>9104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1025</v>
       </c>
@@ -6050,7 +6056,7 @@
         <v>9105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1026</v>
       </c>
@@ -6058,7 +6064,7 @@
         <v>9106</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1027</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1028</v>
       </c>
@@ -6074,7 +6080,7 @@
         <v>9108</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1029</v>
       </c>
@@ -6082,7 +6088,7 @@
         <v>9109</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1030</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>9110</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1031</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>9111</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1032</v>
       </c>
@@ -6106,7 +6112,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1033</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>9113</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1034</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>9114</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1035</v>
       </c>
@@ -6130,7 +6136,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1036</v>
       </c>
@@ -6138,7 +6144,7 @@
         <v>9116</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1037</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>9117</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1038</v>
       </c>
@@ -6154,7 +6160,7 @@
         <v>9118</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1039</v>
       </c>
@@ -6162,7 +6168,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1040</v>
       </c>
@@ -6170,7 +6176,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1041</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>9121</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1042</v>
       </c>
@@ -6186,7 +6192,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1043</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1044</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>9203</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1045</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>9204</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1046</v>
       </c>
@@ -6218,7 +6224,7 @@
         <v>9205</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1047</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>9206</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1048</v>
       </c>
@@ -6234,7 +6240,7 @@
         <v>9207</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1049</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>9208</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1050</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>9209</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1051</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>9210</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1052</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>9211</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1053</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1054</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1055</v>
       </c>
@@ -6290,7 +6296,7 @@
         <v>10103</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1056</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>10104</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1057</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>10105</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1058</v>
       </c>
@@ -6314,7 +6320,7 @@
         <v>10106</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1059</v>
       </c>
@@ -6322,7 +6328,7 @@
         <v>10107</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1060</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>10108</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1061</v>
       </c>
@@ -6338,7 +6344,7 @@
         <v>10109</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1062</v>
       </c>
@@ -6346,7 +6352,7 @@
         <v>10201</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1063</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>10202</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1064</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>10203</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1065</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>10204</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1066</v>
       </c>
@@ -6378,7 +6384,7 @@
         <v>10205</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1067</v>
       </c>
@@ -6386,7 +6392,7 @@
         <v>10206</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1068</v>
       </c>
@@ -6394,7 +6400,7 @@
         <v>10207</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1069</v>
       </c>
@@ -6402,7 +6408,7 @@
         <v>10208</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1070</v>
       </c>
@@ -6410,7 +6416,7 @@
         <v>10209</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1071</v>
       </c>
@@ -6418,7 +6424,7 @@
         <v>10210</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1072</v>
       </c>
@@ -6426,7 +6432,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1073</v>
       </c>
@@ -6434,7 +6440,7 @@
         <v>10302</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1074</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>10303</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1075</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1076</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>10305</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1077</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1078</v>
       </c>
@@ -6474,7 +6480,7 @@
         <v>10307</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1079</v>
       </c>
@@ -6482,7 +6488,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1080</v>
       </c>
@@ -6490,7 +6496,7 @@
         <v>10402</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1081</v>
       </c>
@@ -6498,7 +6504,7 @@
         <v>10403</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1082</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1083</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1084</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>11102</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1085</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>11201</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1086</v>
       </c>
@@ -6538,7 +6544,7 @@
         <v>11202</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1087</v>
       </c>
@@ -6546,7 +6552,7 @@
         <v>11203</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1088</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1089</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>11302</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1090</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>11303</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1091</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>11401</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1092</v>
       </c>
@@ -6586,7 +6592,7 @@
         <v>11402</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1093</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>12101</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1094</v>
       </c>
@@ -6602,7 +6608,7 @@
         <v>12102</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1095</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>12103</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1096</v>
       </c>
@@ -6618,7 +6624,7 @@
         <v>12104</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1097</v>
       </c>
@@ -6626,7 +6632,7 @@
         <v>12201</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1098</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>12301</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1099</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>12302</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1100</v>
       </c>
@@ -6650,7 +6656,7 @@
         <v>12303</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1101</v>
       </c>
@@ -6658,7 +6664,7 @@
         <v>12401</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1102</v>
       </c>
@@ -6666,7 +6672,7 @@
         <v>12402</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1103</v>
       </c>
@@ -6674,7 +6680,7 @@
         <v>13101</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1104</v>
       </c>
@@ -6682,7 +6688,7 @@
         <v>13102</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1105</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>13103</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1106</v>
       </c>
@@ -6698,7 +6704,7 @@
         <v>13104</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1107</v>
       </c>
@@ -6706,7 +6712,7 @@
         <v>13105</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1108</v>
       </c>
@@ -6714,7 +6720,7 @@
         <v>13106</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1109</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>13107</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1110</v>
       </c>
@@ -6730,7 +6736,7 @@
         <v>13108</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1111</v>
       </c>
@@ -6738,7 +6744,7 @@
         <v>13109</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1112</v>
       </c>
@@ -6746,7 +6752,7 @@
         <v>13110</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1113</v>
       </c>
@@ -6754,7 +6760,7 @@
         <v>13111</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1114</v>
       </c>
@@ -6762,7 +6768,7 @@
         <v>13112</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1115</v>
       </c>
@@ -6770,7 +6776,7 @@
         <v>13113</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1116</v>
       </c>
@@ -6778,7 +6784,7 @@
         <v>13114</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1117</v>
       </c>
@@ -6786,7 +6792,7 @@
         <v>13115</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1118</v>
       </c>
@@ -6794,7 +6800,7 @@
         <v>13116</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1119</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>13117</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1120</v>
       </c>
@@ -6810,7 +6816,7 @@
         <v>13118</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1121</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>13119</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1122</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>13120</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1123</v>
       </c>
@@ -6834,7 +6840,7 @@
         <v>13121</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1124</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>13122</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1125</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>13123</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1126</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>13124</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1127</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>13125</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1128</v>
       </c>
@@ -6874,7 +6880,7 @@
         <v>13126</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1129</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>13127</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1130</v>
       </c>
@@ -6890,7 +6896,7 @@
         <v>13128</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1131</v>
       </c>
@@ -6898,7 +6904,7 @@
         <v>13129</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1132</v>
       </c>
@@ -6906,7 +6912,7 @@
         <v>13130</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1133</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>13131</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1134</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>13132</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1135</v>
       </c>
@@ -6930,7 +6936,7 @@
         <v>13201</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1136</v>
       </c>
@@ -6938,7 +6944,7 @@
         <v>13202</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1137</v>
       </c>
@@ -6946,7 +6952,7 @@
         <v>13203</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1138</v>
       </c>
@@ -6954,7 +6960,7 @@
         <v>13301</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1139</v>
       </c>
@@ -6962,7 +6968,7 @@
         <v>13302</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1140</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>13303</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1141</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>13401</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1142</v>
       </c>
@@ -6986,7 +6992,7 @@
         <v>13402</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1143</v>
       </c>
@@ -6994,7 +7000,7 @@
         <v>13403</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1144</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>13404</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1145</v>
       </c>
@@ -7010,7 +7016,7 @@
         <v>13501</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1146</v>
       </c>
@@ -7018,7 +7024,7 @@
         <v>13502</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1147</v>
       </c>
@@ -7026,7 +7032,7 @@
         <v>13503</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1148</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>13504</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1149</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>13505</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1150</v>
       </c>
@@ -7050,7 +7056,7 @@
         <v>13601</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1151</v>
       </c>
@@ -7058,7 +7064,7 @@
         <v>13602</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1152</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>13603</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1153</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>13604</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1154</v>
       </c>
@@ -7082,7 +7088,7 @@
         <v>13605</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1155</v>
       </c>
@@ -7090,7 +7096,7 @@
         <v>14101</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1156</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>14102</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1157</v>
       </c>
@@ -7106,7 +7112,7 @@
         <v>14103</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1158</v>
       </c>
@@ -7114,7 +7120,7 @@
         <v>14104</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1159</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>14105</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1160</v>
       </c>
@@ -7130,7 +7136,7 @@
         <v>14106</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1161</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>14107</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1162</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>14108</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1163</v>
       </c>
@@ -7154,7 +7160,7 @@
         <v>14201</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1164</v>
       </c>
@@ -7162,7 +7168,7 @@
         <v>14202</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1165</v>
       </c>
@@ -7170,7 +7176,7 @@
         <v>14203</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1166</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>14204</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1167</v>
       </c>
@@ -7186,7 +7192,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1168</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>15102</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1169</v>
       </c>
@@ -7202,7 +7208,7 @@
         <v>15201</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1170</v>
       </c>
@@ -7210,7 +7216,7 @@
         <v>15202</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1171</v>
       </c>
@@ -7218,7 +7224,7 @@
         <v>16101</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1172</v>
       </c>
@@ -7226,7 +7232,7 @@
         <v>16102</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1173</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>16103</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1174</v>
       </c>
@@ -7242,7 +7248,7 @@
         <v>16104</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1175</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>16105</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1176</v>
       </c>
@@ -7258,7 +7264,7 @@
         <v>16106</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1177</v>
       </c>
@@ -7266,7 +7272,7 @@
         <v>16107</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1178</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>16108</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1179</v>
       </c>
@@ -7282,7 +7288,7 @@
         <v>16109</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1180</v>
       </c>
@@ -7290,7 +7296,7 @@
         <v>16201</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1181</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>16202</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1182</v>
       </c>
@@ -7306,7 +7312,7 @@
         <v>16203</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1183</v>
       </c>
@@ -7314,7 +7320,7 @@
         <v>16204</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1184</v>
       </c>
@@ -7322,7 +7328,7 @@
         <v>16205</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1185</v>
       </c>
@@ -7330,7 +7336,7 @@
         <v>16206</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1186</v>
       </c>
@@ -7338,7 +7344,7 @@
         <v>16207</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1187</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>16301</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1188</v>
       </c>
@@ -7354,7 +7360,7 @@
         <v>16302</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1189</v>
       </c>
@@ -7362,7 +7368,7 @@
         <v>16303</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1190</v>
       </c>
@@ -7370,7 +7376,7 @@
         <v>16304</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1191</v>
       </c>
@@ -7387,31 +7393,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3F1AF3-582F-B14A-A9DB-80A81661295A}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="78.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="78.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" customWidth="1"/>
     <col min="17" max="17" width="59" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.125" customWidth="1"/>
+    <col min="21" max="21" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1262</v>
       </c>
@@ -7476,7 +7480,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1298</v>
       </c>
@@ -7498,6 +7502,9 @@
       <c r="G2" t="s">
         <v>1283</v>
       </c>
+      <c r="H2" t="s">
+        <v>1303</v>
+      </c>
       <c r="I2" t="s">
         <v>1284</v>
       </c>
@@ -7535,7 +7542,7 @@
         <v>1292</v>
       </c>
       <c r="U2" t="s">
-        <v>1283</v>
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -7552,28 +7559,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="14" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>842</v>
       </c>
@@ -7626,7 +7633,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44309</v>
       </c>
@@ -7679,7 +7686,7 @@
         <v>5502</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44309</v>
       </c>
@@ -7732,7 +7739,7 @@
         <v>5802</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44309</v>
       </c>
@@ -7785,7 +7792,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44309</v>
       </c>
@@ -7838,7 +7845,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44309</v>
       </c>
@@ -7891,7 +7898,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44309</v>
       </c>
@@ -7944,7 +7951,7 @@
         <v>5107</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44309</v>
       </c>
@@ -7997,7 +8004,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44309</v>
       </c>
@@ -8050,7 +8057,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44309</v>
       </c>
@@ -8103,7 +8110,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44309</v>
       </c>
@@ -8156,7 +8163,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44309</v>
       </c>
@@ -8209,7 +8216,7 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44309</v>
       </c>
@@ -8262,7 +8269,7 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44309</v>
       </c>
@@ -8315,7 +8322,7 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44309</v>
       </c>
@@ -8368,7 +8375,7 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44309</v>
       </c>
@@ -8421,7 +8428,7 @@
         <v>5201</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44309</v>
       </c>
@@ -8474,7 +8481,7 @@
         <v>5105</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44309</v>
       </c>
@@ -8527,7 +8534,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44309</v>
       </c>
@@ -8580,7 +8587,7 @@
         <v>5702</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44309</v>
       </c>
@@ -8633,7 +8640,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44309</v>
       </c>
@@ -8686,7 +8693,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44309</v>
       </c>
@@ -8739,7 +8746,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44309</v>
       </c>
@@ -8792,7 +8799,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44309</v>
       </c>
@@ -8845,7 +8852,7 @@
         <v>5706</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44309</v>
       </c>
@@ -8898,7 +8905,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44309</v>
       </c>
@@ -8951,7 +8958,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44309</v>
       </c>
@@ -9004,7 +9011,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44309</v>
       </c>
@@ -9057,7 +9064,7 @@
         <v>5701</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44309</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44309</v>
       </c>
@@ -9163,7 +9170,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44309</v>
       </c>
@@ -9216,7 +9223,7 @@
         <v>5103</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44309</v>
       </c>
@@ -9269,7 +9276,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44309</v>
       </c>
@@ -9322,7 +9329,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44309</v>
       </c>
@@ -9375,7 +9382,7 @@
         <v>13402</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44309</v>
       </c>
@@ -9428,7 +9435,7 @@
         <v>13403</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44309</v>
       </c>
@@ -9481,7 +9488,7 @@
         <v>13103</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44309</v>
       </c>
@@ -9534,7 +9541,7 @@
         <v>13301</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44309</v>
       </c>
@@ -9587,7 +9594,7 @@
         <v>13104</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44309</v>
       </c>
@@ -9640,7 +9647,7 @@
         <v>13503</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44309</v>
       </c>
@@ -9693,7 +9700,7 @@
         <v>13106</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44309</v>
       </c>
@@ -9746,7 +9753,7 @@
         <v>13111</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44309</v>
       </c>
@@ -9799,7 +9806,7 @@
         <v>13112</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44309</v>
       </c>
@@ -9852,7 +9859,7 @@
         <v>13302</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44309</v>
       </c>
@@ -9905,7 +9912,7 @@
         <v>13115</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44309</v>
       </c>
@@ -9958,7 +9965,7 @@
         <v>13404</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44309</v>
       </c>
@@ -10011,7 +10018,7 @@
         <v>13121</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44309</v>
       </c>
@@ -10064,7 +10071,7 @@
         <v>13124</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44309</v>
       </c>
@@ -10117,7 +10124,7 @@
         <v>13201</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44309</v>
       </c>
@@ -10170,7 +10177,7 @@
         <v>13201</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44309</v>
       </c>
@@ -10223,7 +10230,7 @@
         <v>13127</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44309</v>
       </c>
@@ -10276,7 +10283,7 @@
         <v>13130</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44309</v>
       </c>
@@ -10329,7 +10336,7 @@
         <v>13601</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44309</v>
       </c>
@@ -10382,7 +10389,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44309</v>
       </c>
@@ -10435,7 +10442,7 @@
         <v>16102</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44309</v>
       </c>
@@ -10488,7 +10495,7 @@
         <v>8203</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44309</v>
       </c>
@@ -10541,7 +10548,7 @@
         <v>8103</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44309</v>
       </c>
@@ -10594,7 +10601,7 @@
         <v>16203</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44309</v>
       </c>
@@ -10647,7 +10654,7 @@
         <v>8101</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44309</v>
       </c>
@@ -10700,7 +10707,7 @@
         <v>8205</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44309</v>
       </c>
@@ -10753,7 +10760,7 @@
         <v>8201</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44309</v>
       </c>
@@ -10806,7 +10813,7 @@
         <v>8106</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44309</v>
       </c>
@@ -10859,7 +10866,7 @@
         <v>8107</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44309</v>
       </c>
@@ -10912,7 +10919,7 @@
         <v>16107</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44309</v>
       </c>
@@ -10965,7 +10972,7 @@
         <v>16201</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44309</v>
       </c>
@@ -11018,7 +11025,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44309</v>
       </c>
@@ -11071,7 +11078,7 @@
         <v>8111</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44309</v>
       </c>
@@ -11124,7 +11131,7 @@
         <v>16109</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44309</v>
       </c>
@@ -11177,7 +11184,7 @@
         <v>8313</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44309</v>
       </c>
@@ -11230,7 +11237,7 @@
         <v>8304</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44309</v>
       </c>
@@ -11283,7 +11290,7 @@
         <v>8305</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44309</v>
       </c>
@@ -11336,7 +11343,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44309</v>
       </c>
@@ -11389,7 +11396,7 @@
         <v>8102</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44309</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44309</v>
       </c>
@@ -11495,7 +11502,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44309</v>
       </c>
@@ -11548,7 +11555,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44309</v>
       </c>
@@ -11601,7 +11608,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44309</v>
       </c>
@@ -11654,7 +11661,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44309</v>
       </c>
@@ -11707,7 +11714,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44309</v>
       </c>
@@ -11760,7 +11767,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44309</v>
       </c>
@@ -11813,7 +11820,7 @@
         <v>14203</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44309</v>
       </c>
@@ -11866,7 +11873,7 @@
         <v>14103</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44309</v>
       </c>
@@ -11919,7 +11926,7 @@
         <v>14107</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44309</v>
       </c>
@@ -11972,7 +11979,7 @@
         <v>14204</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44309</v>
       </c>
@@ -12025,7 +12032,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44309</v>
       </c>
@@ -12078,7 +12085,7 @@
         <v>14108</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44309</v>
       </c>
@@ -12131,7 +12138,7 @@
         <v>9101</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44309</v>
       </c>
@@ -12184,7 +12191,7 @@
         <v>14201</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44309</v>
       </c>
@@ -12237,7 +12244,7 @@
         <v>14101</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44309</v>
       </c>
@@ -12290,7 +12297,7 @@
         <v>10208</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44309</v>
       </c>
@@ -12343,7 +12350,7 @@
         <v>10210</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44309</v>
       </c>
@@ -12396,7 +12403,7 @@
         <v>10205</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44309</v>
       </c>
@@ -12449,7 +12456,7 @@
         <v>10202</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44309</v>
       </c>
@@ -12502,7 +12509,7 @@
         <v>10201</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44309</v>
       </c>
@@ -12555,7 +12562,7 @@
         <v>11401</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44309</v>
       </c>
@@ -12608,7 +12615,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44309</v>
       </c>
@@ -12661,7 +12668,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44309</v>
       </c>
@@ -12714,7 +12721,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44309</v>
       </c>
@@ -12767,7 +12774,7 @@
         <v>10109</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44309</v>
       </c>
@@ -12820,7 +12827,7 @@
         <v>10109</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44309</v>
       </c>
@@ -12873,7 +12880,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44309</v>
       </c>
@@ -12926,7 +12933,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44309</v>
       </c>
@@ -12979,7 +12986,7 @@
         <v>10106</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44309</v>
       </c>
@@ -13032,7 +13039,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44309</v>
       </c>
@@ -13085,7 +13092,7 @@
         <v>10107</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44309</v>
       </c>
@@ -13138,7 +13145,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44309</v>
       </c>
@@ -13191,7 +13198,7 @@
         <v>10108</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44309</v>
       </c>
@@ -13244,7 +13251,7 @@
         <v>10403</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44309</v>
       </c>
@@ -13297,7 +13304,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44309</v>
       </c>
@@ -13350,7 +13357,7 @@
         <v>11201</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44309</v>
       </c>
@@ -13403,7 +13410,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44309</v>
       </c>
@@ -13456,7 +13463,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44309</v>
       </c>
@@ -13509,7 +13516,7 @@
         <v>10105</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44309</v>
       </c>
@@ -13562,7 +13569,7 @@
         <v>10104</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44309</v>
       </c>
@@ -13615,7 +13622,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44309</v>
       </c>
@@ -13668,7 +13675,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44309</v>
       </c>
@@ -13721,7 +13728,7 @@
         <v>10303</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44309</v>
       </c>
@@ -13774,7 +13781,7 @@
         <v>12401</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44309</v>
       </c>
@@ -13827,7 +13834,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44309</v>
       </c>
@@ -13880,7 +13887,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44309</v>
       </c>
@@ -13933,7 +13940,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44309</v>
       </c>
@@ -13986,7 +13993,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44309</v>
       </c>
@@ -14039,7 +14046,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44309</v>
       </c>
@@ -14092,7 +14099,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44309</v>
       </c>
@@ -14145,7 +14152,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44309</v>
       </c>
@@ -14198,7 +14205,7 @@
         <v>9210</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44309</v>
       </c>
@@ -14251,7 +14258,7 @@
         <v>9203</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44309</v>
       </c>
@@ -14304,7 +14311,7 @@
         <v>9111</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44309</v>
       </c>
@@ -14357,7 +14364,7 @@
         <v>9102</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44309</v>
       </c>
@@ -14410,7 +14417,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44309</v>
       </c>
@@ -14463,7 +14470,7 @@
         <v>9108</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44309</v>
       </c>
@@ -14516,7 +14523,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44309</v>
       </c>
@@ -14569,7 +14576,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44309</v>
       </c>
@@ -14622,7 +14629,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44309</v>
       </c>
@@ -14675,7 +14682,7 @@
         <v>6307</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44309</v>
       </c>
@@ -14728,7 +14735,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>44309</v>
       </c>
@@ -14781,7 +14788,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>44309</v>
       </c>
@@ -14834,7 +14841,7 @@
         <v>6203</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>44309</v>
       </c>
@@ -14887,7 +14894,7 @@
         <v>6204</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>44309</v>
       </c>
@@ -14940,7 +14947,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>44309</v>
       </c>
@@ -14993,7 +15000,7 @@
         <v>6205</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>44309</v>
       </c>
@@ -15046,7 +15053,7 @@
         <v>6301</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>44309</v>
       </c>
@@ -15099,7 +15106,7 @@
         <v>6110</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>44309</v>
       </c>
@@ -15152,7 +15159,7 @@
         <v>6113</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>44309</v>
       </c>
@@ -15205,7 +15212,7 @@
         <v>6112</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>44309</v>
       </c>
@@ -15258,7 +15265,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>44309</v>
       </c>
@@ -15311,7 +15318,7 @@
         <v>6107</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>44309</v>
       </c>
@@ -15364,7 +15371,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>44309</v>
       </c>
@@ -15417,7 +15424,7 @@
         <v>6310</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>44309</v>
       </c>
@@ -15470,7 +15477,7 @@
         <v>7405</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>44309</v>
       </c>
@@ -15523,7 +15530,7 @@
         <v>7403</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44309</v>
       </c>
@@ -15576,7 +15583,7 @@
         <v>7302</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44309</v>
       </c>
@@ -15629,7 +15636,7 @@
         <v>7308</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44309</v>
       </c>
@@ -15682,7 +15689,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44309</v>
       </c>
@@ -15735,7 +15742,7 @@
         <v>7304</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44309</v>
       </c>
@@ -15788,7 +15795,7 @@
         <v>7404</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44309</v>
       </c>
@@ -15841,7 +15848,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44309</v>
       </c>
@@ -15894,7 +15901,7 @@
         <v>7401</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44309</v>
       </c>
@@ -15947,7 +15954,7 @@
         <v>7301</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>44309</v>
       </c>
@@ -16000,7 +16007,7 @@
         <v>7301</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>44309</v>
       </c>
@@ -16053,7 +16060,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>44309</v>
       </c>
@@ -16106,7 +16113,7 @@
         <v>7101</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>44309</v>
       </c>
@@ -16159,7 +16166,7 @@
         <v>7101</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>44309</v>
       </c>
@@ -16212,7 +16219,7 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44309</v>
       </c>
@@ -16265,7 +16272,7 @@
         <v>6115</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>44309</v>
       </c>
@@ -16318,7 +16325,7 @@
         <v>10301</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>44309</v>
       </c>
@@ -16371,7 +16378,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>44309</v>
       </c>
@@ -16424,7 +16431,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>44309</v>
       </c>
@@ -16477,7 +16484,7 @@
         <v>14106</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>44309</v>
       </c>
@@ -16530,7 +16537,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>44309</v>
       </c>
@@ -16583,7 +16590,7 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>44309</v>
       </c>
@@ -16636,7 +16643,7 @@
         <v>13107</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>44309</v>
       </c>
@@ -16689,7 +16696,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>44309</v>
       </c>
@@ -16742,7 +16749,7 @@
         <v>5303</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44309</v>
       </c>
@@ -16795,7 +16802,7 @@
         <v>10305</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44309</v>
       </c>
@@ -16848,7 +16855,7 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44309</v>
       </c>
@@ -16901,7 +16908,7 @@
         <v>9109</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44309</v>
       </c>
@@ -16954,7 +16961,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44309</v>
       </c>
@@ -17007,7 +17014,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44309</v>
       </c>
@@ -17060,7 +17067,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44309</v>
       </c>
@@ -17113,7 +17120,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44309</v>
       </c>
@@ -17160,7 +17167,7 @@
         <v>13125</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44309</v>
       </c>
@@ -17213,7 +17220,7 @@
         <v>13603</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>44309</v>
       </c>
@@ -17266,7 +17273,7 @@
         <v>10209</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>44309</v>
       </c>
@@ -17319,7 +17326,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>44309</v>
       </c>
@@ -17366,7 +17373,7 @@
         <v>7406</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>44309</v>
       </c>
@@ -17419,7 +17426,7 @@
         <v>10402</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>44309</v>
       </c>
@@ -17466,7 +17473,7 @@
         <v>6108</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>44309</v>
       </c>
@@ -17519,7 +17526,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>44309</v>
       </c>
@@ -17572,7 +17579,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>44309</v>
       </c>
@@ -17625,7 +17632,7 @@
         <v>13501</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>44309</v>
       </c>
@@ -17678,7 +17685,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>44309</v>
       </c>
@@ -17731,7 +17738,7 @@
         <v>16101</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>44309</v>
       </c>
@@ -17778,7 +17785,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>44309</v>
       </c>
@@ -17831,7 +17838,7 @@
         <v>10207</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>44309</v>
       </c>
@@ -17884,7 +17891,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>44309</v>
       </c>
@@ -17937,7 +17944,7 @@
         <v>5604</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>44309</v>
       </c>
@@ -17990,7 +17997,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>44309</v>
       </c>
@@ -18043,7 +18050,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>44309</v>
       </c>
@@ -18096,7 +18103,7 @@
         <v>14202</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>44309</v>
       </c>
@@ -18149,7 +18156,7 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>44309</v>
       </c>
@@ -18202,7 +18209,7 @@
         <v>6102</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>44309</v>
       </c>
@@ -18249,7 +18256,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>44309</v>
       </c>
@@ -18296,7 +18303,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>44309</v>
       </c>
@@ -18349,7 +18356,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>44309</v>
       </c>
@@ -18402,7 +18409,7 @@
         <v>8303</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>44309</v>
       </c>
@@ -18449,7 +18456,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>44309</v>
       </c>
@@ -18496,7 +18503,7 @@
         <v>5606</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>44309</v>
       </c>
@@ -18543,7 +18550,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>44309</v>
       </c>
@@ -18596,7 +18603,7 @@
         <v>10109</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>44309</v>
       </c>
@@ -18649,7 +18656,7 @@
         <v>8312</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>44309</v>
       </c>
@@ -18696,7 +18703,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>44309</v>
       </c>
@@ -18743,7 +18750,7 @@
         <v>9114</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>44309</v>
       </c>
@@ -18790,7 +18797,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>44309</v>
       </c>
@@ -18837,7 +18844,7 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>44309</v>
       </c>
@@ -18884,7 +18891,7 @@
         <v>6109</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>44309</v>
       </c>
@@ -18931,7 +18938,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>44309</v>
       </c>
@@ -18978,7 +18985,7 @@
         <v>6104</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>44309</v>
       </c>
@@ -19031,7 +19038,7 @@
         <v>13117</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>44309</v>
       </c>
@@ -19078,7 +19085,7 @@
         <v>10302</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>44309</v>
       </c>
@@ -19131,7 +19138,7 @@
         <v>16301</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>44309</v>
       </c>
@@ -19184,7 +19191,7 @@
         <v>12101</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>44309</v>
       </c>
@@ -19231,7 +19238,7 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>44309</v>
       </c>
@@ -19284,7 +19291,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>44309</v>
       </c>
@@ -19331,7 +19338,7 @@
         <v>5601</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>44309</v>
       </c>
@@ -19384,7 +19391,7 @@
         <v>16302</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>44309</v>
       </c>
@@ -19437,7 +19444,7 @@
         <v>14104</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>44309</v>
       </c>
@@ -19484,7 +19491,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>44309</v>
       </c>
@@ -19531,7 +19538,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>44309</v>
       </c>
@@ -19584,7 +19591,7 @@
         <v>9211</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>44309</v>
       </c>
@@ -19637,7 +19644,7 @@
         <v>13401</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>44309</v>
       </c>
@@ -19684,7 +19691,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>44309</v>
       </c>
@@ -19737,7 +19744,7 @@
         <v>13604</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>44309</v>
       </c>
@@ -19784,7 +19791,7 @@
         <v>6116</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>44309</v>
       </c>
@@ -19831,7 +19838,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>44309</v>
       </c>
@@ -19884,7 +19891,7 @@
         <v>8301</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>44309</v>
       </c>
@@ -19937,7 +19944,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>44309</v>
       </c>
@@ -19984,7 +19991,7 @@
         <v>10203</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>44309</v>
       </c>

--- a/Salud/2.3.xlsx
+++ b/Salud/2.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Salud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A603C-ECA2-4269-9EBC-B7436EEF8383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E781DB-EDCF-4C2E-9E9B-1672C572AD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C0182A6B-9F89-8848-8213-AEC29DB807E7}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1307">
   <si>
     <t>viernes</t>
   </si>
@@ -3892,9 +3892,6 @@
     <t>Unidad Medida</t>
   </si>
   <si>
-    <t>Salud</t>
-  </si>
-  <si>
     <t>Tipos de Farmacias</t>
   </si>
   <si>
@@ -3962,6 +3959,15 @@
   </si>
   <si>
     <t>Número</t>
+  </si>
+  <si>
+    <t>Id_Producto</t>
+  </si>
+  <si>
+    <t>Id_Categoría</t>
+  </si>
+  <si>
+    <t>Salud e Industria Farmacéutica</t>
   </si>
 </sst>
 </file>
@@ -3971,9 +3977,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3990,6 +4003,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4046,22 +4065,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4069,6 +4088,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4157,8 +4177,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_3" connectionId="1" xr16:uid="{2FC17DFC-83A8-4C8C-BE88-B56CBF0A39A0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="19" unboundColumnsRight="2">
-    <queryTableFields count="17">
+  <queryTableRefresh nextId="22" unboundColumnsRight="5">
+    <queryTableFields count="20">
       <queryTableField id="1" name="fecha" tableColumnId="1"/>
       <queryTableField id="2" name="local_id" tableColumnId="2"/>
       <queryTableField id="3" name="fk_region" tableColumnId="3"/>
@@ -4174,6 +4194,9 @@
       <queryTableField id="13" name="local_lat" tableColumnId="13"/>
       <queryTableField id="14" name="local_lng" tableColumnId="14"/>
       <queryTableField id="15" name="funcionamiento_dia" tableColumnId="15"/>
+      <queryTableField id="21" dataBound="0" tableColumnId="18"/>
+      <queryTableField id="20" dataBound="0" tableColumnId="19"/>
+      <queryTableField id="19" dataBound="0" tableColumnId="20"/>
       <queryTableField id="16" dataBound="0" tableColumnId="16"/>
       <queryTableField id="17" dataBound="0" tableColumnId="17"/>
     </queryTableFields>
@@ -4212,9 +4235,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6888C285-CF5D-ED43-AF2B-32167AF37E4A}" name="FarmaciasTurno__2" displayName="FarmaciasTurno__2" ref="A1:Q238" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q238" xr:uid="{6D4B1C88-D91A-410D-90B8-1AD9378CF13B}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6888C285-CF5D-ED43-AF2B-32167AF37E4A}" name="FarmaciasTurno__2" displayName="FarmaciasTurno__2" ref="A1:T238" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T238" xr:uid="{6D4B1C88-D91A-410D-90B8-1AD9378CF13B}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{4D329C11-BC68-4AE5-B309-24E1F5909EE1}" uniqueName="1" name="fecha" queryTableFieldId="1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{11172C9A-2E97-4AF2-86EF-08EE5282E375}" uniqueName="2" name="local_id" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{DF6C0E0F-6526-43D1-B332-80BB763CC10C}" uniqueName="3" name="fk_region" queryTableFieldId="3"/>
@@ -4230,6 +4253,9 @@
     <tableColumn id="13" xr3:uid="{C5402652-3B12-4A52-99BD-5D23E778B7A2}" uniqueName="13" name="local_lat" queryTableFieldId="13"/>
     <tableColumn id="14" xr3:uid="{6C45A14F-126E-457F-8E43-0DDDAC6F6064}" uniqueName="14" name="local_lng" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{B54C0BB5-6965-4D49-99E1-336533B64739}" uniqueName="15" name="funcionamiento_dia" queryTableFieldId="15" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{3CFD5962-8013-4C90-9372-0D40D96D1C9C}" uniqueName="18" name="Id_Producto" queryTableFieldId="21" dataCellStyle="Normal 2"/>
+    <tableColumn id="19" xr3:uid="{212670F5-8237-4EE6-8306-94AD40F6DC15}" uniqueName="19" name="Producto" queryTableFieldId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{5FFEAC46-59D9-41D1-9E7C-BD0A68EF6BA5}" uniqueName="20" name="Id_Categoría" queryTableFieldId="19" dataCellStyle="Normal 2"/>
     <tableColumn id="16" xr3:uid="{31FA73CF-DC32-9942-9764-6792B22F8384}" uniqueName="16" name="Categoría" queryTableFieldId="16" dataDxfId="1" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(FarmaciasTurno__2[[#This Row],[local_nombre]],#REF!,2,0)</calculatedColumnFormula>
     </tableColumn>
@@ -4561,7 +4587,7 @@
         <v>1218</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,7 +4598,7 @@
         <v>1101</v>
       </c>
       <c r="F2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4586,7 +4612,7 @@
         <v>1194</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7393,7 +7419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3F1AF3-582F-B14A-A9DB-80A81661295A}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7482,67 +7510,67 @@
     </row>
     <row r="2" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="M2" t="s">
         <v>1295</v>
       </c>
-      <c r="C2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R2" s="11">
+        <v>44309</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="U2" t="s">
         <v>1303</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1289</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>1297</v>
-      </c>
-      <c r="R2" s="11">
-        <v>44309</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1292</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -7555,7 +7583,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC53C1F4-B8BC-6345-8320-76919E2D8225}">
-  <dimension ref="A1:Q238"/>
+  <dimension ref="A1:T238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7575,12 +7603,13 @@
     <col min="12" max="12" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="1"/>
+    <col min="16" max="18" width="21.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="30.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>842</v>
       </c>
@@ -7626,14 +7655,23 @@
       <c r="O1" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="14" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>1266</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44309</v>
       </c>
@@ -7679,14 +7717,23 @@
       <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="P2" s="1">
+        <v>200203</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R2" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T2" s="1">
         <v>5502</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44309</v>
       </c>
@@ -7732,14 +7779,23 @@
       <c r="O3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="P3" s="1">
+        <v>200204</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R3" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T3" s="1">
         <v>5802</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44309</v>
       </c>
@@ -7785,14 +7841,23 @@
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="P4" s="1">
+        <v>200205</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R4" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T4" s="1">
         <v>5504</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44309</v>
       </c>
@@ -7838,14 +7903,23 @@
       <c r="O5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="P5" s="1">
+        <v>200206</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R5" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T5" s="1">
         <v>5506</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44309</v>
       </c>
@@ -7891,14 +7965,23 @@
       <c r="O6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="P6" s="1">
+        <v>200207</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R6" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T6" s="1">
         <v>5801</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44309</v>
       </c>
@@ -7944,14 +8027,23 @@
       <c r="O7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="P7" s="1">
+        <v>200208</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R7" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T7" s="1">
         <v>5107</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44309</v>
       </c>
@@ -7997,14 +8089,23 @@
       <c r="O8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="P8" s="1">
+        <v>200209</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R8" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T8" s="1">
         <v>5804</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44309</v>
       </c>
@@ -8050,14 +8151,23 @@
       <c r="O9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="P9" s="1">
+        <v>200210</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R9" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T9" s="1">
         <v>5109</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44309</v>
       </c>
@@ -8103,14 +8213,23 @@
       <c r="O10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="P10" s="1">
+        <v>200211</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R10" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T10" s="1">
         <v>5109</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44309</v>
       </c>
@@ -8156,14 +8275,23 @@
       <c r="O11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="P11" s="1">
+        <v>200212</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R11" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T11" s="1">
         <v>5109</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44309</v>
       </c>
@@ -8209,14 +8337,23 @@
       <c r="O12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="P12" s="1">
+        <v>200213</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R12" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T12" s="1">
         <v>5101</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44309</v>
       </c>
@@ -8262,14 +8399,23 @@
       <c r="O13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="P13" s="1">
+        <v>200214</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R13" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T13" s="1">
         <v>5101</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44309</v>
       </c>
@@ -8315,14 +8461,23 @@
       <c r="O14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="P14" s="1">
+        <v>200215</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R14" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T14" s="1">
         <v>5101</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44309</v>
       </c>
@@ -8368,14 +8523,23 @@
       <c r="O15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="P15" s="1">
+        <v>200216</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R15" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T15" s="1">
         <v>5605</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44309</v>
       </c>
@@ -8421,14 +8585,23 @@
       <c r="O16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="P16" s="1">
+        <v>200217</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R16" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T16" s="1">
         <v>5201</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44309</v>
       </c>
@@ -8474,14 +8647,23 @@
       <c r="O17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="P17" s="1">
+        <v>200218</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R17" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T17" s="1">
         <v>5105</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44309</v>
       </c>
@@ -8527,14 +8709,23 @@
       <c r="O18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="P18" s="1">
+        <v>200219</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R18" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T18" s="1">
         <v>5402</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44309</v>
       </c>
@@ -8580,14 +8771,23 @@
       <c r="O19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="P19" s="1">
+        <v>200220</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R19" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T19" s="1">
         <v>5702</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44309</v>
       </c>
@@ -8633,14 +8833,23 @@
       <c r="O20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q20" s="1">
+      <c r="P20" s="1">
+        <v>200221</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R20" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T20" s="1">
         <v>5401</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44309</v>
       </c>
@@ -8686,14 +8895,23 @@
       <c r="O21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="P21" s="1">
+        <v>200222</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R21" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T21" s="1">
         <v>5301</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44309</v>
       </c>
@@ -8739,14 +8957,23 @@
       <c r="O22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="P22" s="1">
+        <v>200223</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R22" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T22" s="1">
         <v>5403</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44309</v>
       </c>
@@ -8792,14 +9019,23 @@
       <c r="O23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="P23" s="1">
+        <v>200224</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R23" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T23" s="1">
         <v>5705</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44309</v>
       </c>
@@ -8845,14 +9081,23 @@
       <c r="O24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="P24" s="1">
+        <v>200225</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R24" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T24" s="1">
         <v>5706</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44309</v>
       </c>
@@ -8898,14 +9143,23 @@
       <c r="O25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="P25" s="1">
+        <v>200226</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R25" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T25" s="1">
         <v>5405</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44309</v>
       </c>
@@ -8951,14 +9205,23 @@
       <c r="O26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="P26" s="1">
+        <v>200227</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R26" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T26" s="1">
         <v>5405</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44309</v>
       </c>
@@ -9004,14 +9267,23 @@
       <c r="O27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="P27" s="1">
+        <v>200228</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R27" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T27" s="1">
         <v>5703</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44309</v>
       </c>
@@ -9057,14 +9329,23 @@
       <c r="O28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q28" s="1">
+      <c r="P28" s="1">
+        <v>200229</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R28" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T28" s="1">
         <v>5701</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44309</v>
       </c>
@@ -9110,14 +9391,23 @@
       <c r="O29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q29" s="1">
+      <c r="P29" s="1">
+        <v>200230</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R29" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T29" s="1">
         <v>5104</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44309</v>
       </c>
@@ -9163,14 +9453,23 @@
       <c r="O30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q30" s="1">
+      <c r="P30" s="1">
+        <v>200231</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R30" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T30" s="1">
         <v>5109</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44309</v>
       </c>
@@ -9216,14 +9515,23 @@
       <c r="O31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q31" s="1">
+      <c r="P31" s="1">
+        <v>200232</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R31" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T31" s="1">
         <v>5103</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44309</v>
       </c>
@@ -9269,14 +9577,23 @@
       <c r="O32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q32" s="1">
+      <c r="P32" s="1">
+        <v>200233</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R32" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T32" s="1">
         <v>5109</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44309</v>
       </c>
@@ -9322,14 +9639,23 @@
       <c r="O33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q33" s="1">
+      <c r="P33" s="1">
+        <v>200234</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R33" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T33" s="1">
         <v>5501</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44309</v>
       </c>
@@ -9375,14 +9701,23 @@
       <c r="O34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="P34" s="1">
+        <v>200235</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R34" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T34" s="1">
         <v>13402</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44309</v>
       </c>
@@ -9428,14 +9763,23 @@
       <c r="O35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q35" s="1">
+      <c r="P35" s="1">
+        <v>200236</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R35" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T35" s="1">
         <v>13403</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44309</v>
       </c>
@@ -9481,14 +9825,23 @@
       <c r="O36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q36" s="1">
+      <c r="P36" s="1">
+        <v>200237</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R36" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T36" s="1">
         <v>13103</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44309</v>
       </c>
@@ -9534,14 +9887,23 @@
       <c r="O37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q37" s="1">
+      <c r="P37" s="1">
+        <v>200238</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R37" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T37" s="1">
         <v>13301</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44309</v>
       </c>
@@ -9587,14 +9949,23 @@
       <c r="O38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q38" s="1">
+      <c r="P38" s="1">
+        <v>200239</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R38" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T38" s="1">
         <v>13104</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44309</v>
       </c>
@@ -9640,14 +10011,23 @@
       <c r="O39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q39" s="1">
+      <c r="P39" s="1">
+        <v>200240</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R39" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T39" s="1">
         <v>13503</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44309</v>
       </c>
@@ -9693,14 +10073,23 @@
       <c r="O40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q40" s="1">
+      <c r="P40" s="1">
+        <v>200241</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R40" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T40" s="1">
         <v>13106</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44309</v>
       </c>
@@ -9746,14 +10135,23 @@
       <c r="O41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q41" s="1">
+      <c r="P41" s="1">
+        <v>200242</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R41" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T41" s="1">
         <v>13111</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44309</v>
       </c>
@@ -9799,14 +10197,23 @@
       <c r="O42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q42" s="1">
+      <c r="P42" s="1">
+        <v>200243</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R42" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T42" s="1">
         <v>13112</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44309</v>
       </c>
@@ -9852,14 +10259,23 @@
       <c r="O43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q43" s="1">
+      <c r="P43" s="1">
+        <v>200244</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R43" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T43" s="1">
         <v>13302</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44309</v>
       </c>
@@ -9905,14 +10321,23 @@
       <c r="O44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P44" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q44" s="1">
+      <c r="P44" s="1">
+        <v>200245</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R44" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T44" s="1">
         <v>13115</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44309</v>
       </c>
@@ -9958,14 +10383,23 @@
       <c r="O45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q45" s="1">
+      <c r="P45" s="1">
+        <v>200246</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R45" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T45" s="1">
         <v>13404</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44309</v>
       </c>
@@ -10011,14 +10445,23 @@
       <c r="O46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q46" s="1">
+      <c r="P46" s="1">
+        <v>200247</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R46" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T46" s="1">
         <v>13121</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44309</v>
       </c>
@@ -10064,14 +10507,23 @@
       <c r="O47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q47" s="1">
+      <c r="P47" s="1">
+        <v>200248</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R47" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T47" s="1">
         <v>13124</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44309</v>
       </c>
@@ -10117,14 +10569,23 @@
       <c r="O48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q48" s="1">
+      <c r="P48" s="1">
+        <v>200249</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R48" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T48" s="1">
         <v>13201</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44309</v>
       </c>
@@ -10170,14 +10631,23 @@
       <c r="O49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q49" s="1">
+      <c r="P49" s="1">
+        <v>200250</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R49" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T49" s="1">
         <v>13201</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44309</v>
       </c>
@@ -10223,14 +10693,23 @@
       <c r="O50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q50" s="1">
+      <c r="P50" s="1">
+        <v>200251</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R50" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T50" s="1">
         <v>13127</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44309</v>
       </c>
@@ -10276,14 +10755,23 @@
       <c r="O51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q51" s="1">
+      <c r="P51" s="1">
+        <v>200252</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R51" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T51" s="1">
         <v>13130</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44309</v>
       </c>
@@ -10329,14 +10817,23 @@
       <c r="O52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q52" s="1">
+      <c r="P52" s="1">
+        <v>200253</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R52" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T52" s="1">
         <v>13601</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44309</v>
       </c>
@@ -10382,14 +10879,23 @@
       <c r="O53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q53" s="1">
+      <c r="P53" s="1">
+        <v>200254</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R53" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T53" s="1">
         <v>8202</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44309</v>
       </c>
@@ -10435,14 +10941,23 @@
       <c r="O54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q54" s="1">
+      <c r="P54" s="1">
+        <v>200255</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R54" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T54" s="1">
         <v>16102</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44309</v>
       </c>
@@ -10488,14 +11003,23 @@
       <c r="O55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q55" s="1">
+      <c r="P55" s="1">
+        <v>200256</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R55" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T55" s="1">
         <v>8203</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44309</v>
       </c>
@@ -10541,14 +11065,23 @@
       <c r="O56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q56" s="1">
+      <c r="P56" s="1">
+        <v>200257</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R56" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T56" s="1">
         <v>8103</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44309</v>
       </c>
@@ -10594,14 +11127,23 @@
       <c r="O57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q57" s="1">
+      <c r="P57" s="1">
+        <v>200258</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R57" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T57" s="1">
         <v>16203</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44309</v>
       </c>
@@ -10647,14 +11189,23 @@
       <c r="O58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q58" s="1">
+      <c r="P58" s="1">
+        <v>200259</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R58" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T58" s="1">
         <v>8101</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44309</v>
       </c>
@@ -10700,14 +11251,23 @@
       <c r="O59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q59" s="1">
+      <c r="P59" s="1">
+        <v>200260</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R59" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T59" s="1">
         <v>8205</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44309</v>
       </c>
@@ -10753,14 +11313,23 @@
       <c r="O60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P60" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q60" s="1">
+      <c r="P60" s="1">
+        <v>200261</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R60" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T60" s="1">
         <v>8201</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44309</v>
       </c>
@@ -10806,14 +11375,23 @@
       <c r="O61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q61" s="1">
+      <c r="P61" s="1">
+        <v>200262</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R61" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T61" s="1">
         <v>8106</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44309</v>
       </c>
@@ -10859,14 +11437,23 @@
       <c r="O62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q62" s="1">
+      <c r="P62" s="1">
+        <v>200263</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R62" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T62" s="1">
         <v>8107</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44309</v>
       </c>
@@ -10912,14 +11499,23 @@
       <c r="O63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q63" s="1">
+      <c r="P63" s="1">
+        <v>200264</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R63" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T63" s="1">
         <v>16107</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44309</v>
       </c>
@@ -10965,14 +11561,23 @@
       <c r="O64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P64" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q64" s="1">
+      <c r="P64" s="1">
+        <v>200265</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R64" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T64" s="1">
         <v>16201</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44309</v>
       </c>
@@ -11018,14 +11623,23 @@
       <c r="O65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P65" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q65" s="1">
+      <c r="P65" s="1">
+        <v>200266</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R65" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T65" s="1">
         <v>8110</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44309</v>
       </c>
@@ -11071,14 +11685,23 @@
       <c r="O66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q66" s="1">
+      <c r="P66" s="1">
+        <v>200267</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R66" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T66" s="1">
         <v>8111</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44309</v>
       </c>
@@ -11124,14 +11747,23 @@
       <c r="O67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q67" s="1">
+      <c r="P67" s="1">
+        <v>200268</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R67" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T67" s="1">
         <v>16109</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44309</v>
       </c>
@@ -11177,14 +11809,23 @@
       <c r="O68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q68" s="1">
+      <c r="P68" s="1">
+        <v>200269</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R68" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T68" s="1">
         <v>8313</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44309</v>
       </c>
@@ -11230,14 +11871,23 @@
       <c r="O69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q69" s="1">
+      <c r="P69" s="1">
+        <v>200270</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R69" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T69" s="1">
         <v>8304</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44309</v>
       </c>
@@ -11283,14 +11933,23 @@
       <c r="O70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q70" s="1">
+      <c r="P70" s="1">
+        <v>200271</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R70" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T70" s="1">
         <v>8305</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44309</v>
       </c>
@@ -11336,14 +11995,23 @@
       <c r="O71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q71" s="1">
+      <c r="P71" s="1">
+        <v>200272</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R71" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T71" s="1">
         <v>8306</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44309</v>
       </c>
@@ -11389,14 +12057,23 @@
       <c r="O72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P72" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q72" s="1">
+      <c r="P72" s="1">
+        <v>200273</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R72" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T72" s="1">
         <v>8102</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44309</v>
       </c>
@@ -11442,14 +12119,23 @@
       <c r="O73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P73" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q73" s="1">
+      <c r="P73" s="1">
+        <v>200274</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R73" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T73" s="1">
         <v>5101</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44309</v>
       </c>
@@ -11495,14 +12181,23 @@
       <c r="O74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q74" s="1">
+      <c r="P74" s="1">
+        <v>200275</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R74" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T74" s="1">
         <v>3102</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44309</v>
       </c>
@@ -11548,14 +12243,23 @@
       <c r="O75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q75" s="1">
+      <c r="P75" s="1">
+        <v>200276</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R75" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T75" s="1">
         <v>3101</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44309</v>
       </c>
@@ -11601,14 +12305,23 @@
       <c r="O76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P76" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q76" s="1">
+      <c r="P76" s="1">
+        <v>200277</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R76" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T76" s="1">
         <v>3301</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44309</v>
       </c>
@@ -11654,14 +12367,23 @@
       <c r="O77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P77" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q77" s="1">
+      <c r="P77" s="1">
+        <v>200278</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R77" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T77" s="1">
         <v>3103</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44309</v>
       </c>
@@ -11707,14 +12429,23 @@
       <c r="O78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P78" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q78" s="1">
+      <c r="P78" s="1">
+        <v>200279</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R78" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T78" s="1">
         <v>3202</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44309</v>
       </c>
@@ -11760,14 +12491,23 @@
       <c r="O79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P79" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q79" s="1">
+      <c r="P79" s="1">
+        <v>200280</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R79" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T79" s="1">
         <v>3201</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44309</v>
       </c>
@@ -11813,14 +12553,23 @@
       <c r="O80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P80" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q80" s="1">
+      <c r="P80" s="1">
+        <v>200281</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R80" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T80" s="1">
         <v>14203</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44309</v>
       </c>
@@ -11866,14 +12615,23 @@
       <c r="O81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P81" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q81" s="1">
+      <c r="P81" s="1">
+        <v>200282</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R81" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T81" s="1">
         <v>14103</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44309</v>
       </c>
@@ -11919,14 +12677,23 @@
       <c r="O82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P82" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q82" s="1">
+      <c r="P82" s="1">
+        <v>200283</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R82" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T82" s="1">
         <v>14107</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44309</v>
       </c>
@@ -11972,14 +12739,23 @@
       <c r="O83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P83" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q83" s="1">
+      <c r="P83" s="1">
+        <v>200284</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R83" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T83" s="1">
         <v>14204</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44309</v>
       </c>
@@ -12025,14 +12801,23 @@
       <c r="O84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P84" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q84" s="1">
+      <c r="P84" s="1">
+        <v>200285</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R84" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T84" s="1">
         <v>3202</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44309</v>
       </c>
@@ -12078,14 +12863,23 @@
       <c r="O85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P85" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q85" s="1">
+      <c r="P85" s="1">
+        <v>200286</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R85" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T85" s="1">
         <v>14108</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44309</v>
       </c>
@@ -12131,14 +12925,23 @@
       <c r="O86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P86" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q86" s="1">
+      <c r="P86" s="1">
+        <v>200287</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R86" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T86" s="1">
         <v>9101</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44309</v>
       </c>
@@ -12184,14 +12987,23 @@
       <c r="O87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q87" s="1">
+      <c r="P87" s="1">
+        <v>200288</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R87" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T87" s="1">
         <v>14201</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44309</v>
       </c>
@@ -12237,14 +13049,23 @@
       <c r="O88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P88" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q88" s="1">
+      <c r="P88" s="1">
+        <v>200289</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R88" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T88" s="1">
         <v>14101</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44309</v>
       </c>
@@ -12290,14 +13111,23 @@
       <c r="O89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P89" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q89" s="1">
+      <c r="P89" s="1">
+        <v>200290</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R89" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T89" s="1">
         <v>10208</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44309</v>
       </c>
@@ -12343,14 +13173,23 @@
       <c r="O90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P90" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q90" s="1">
+      <c r="P90" s="1">
+        <v>200291</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R90" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T90" s="1">
         <v>10210</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44309</v>
       </c>
@@ -12396,14 +13235,23 @@
       <c r="O91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P91" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q91" s="1">
+      <c r="P91" s="1">
+        <v>200292</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R91" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T91" s="1">
         <v>10205</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44309</v>
       </c>
@@ -12449,14 +13297,23 @@
       <c r="O92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P92" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q92" s="1">
+      <c r="P92" s="1">
+        <v>200293</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R92" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T92" s="1">
         <v>10202</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44309</v>
       </c>
@@ -12502,14 +13359,23 @@
       <c r="O93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P93" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q93" s="1">
+      <c r="P93" s="1">
+        <v>200294</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R93" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T93" s="1">
         <v>10201</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44309</v>
       </c>
@@ -12555,14 +13421,23 @@
       <c r="O94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P94" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q94" s="1">
+      <c r="P94" s="1">
+        <v>200295</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R94" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T94" s="1">
         <v>11401</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44309</v>
       </c>
@@ -12608,14 +13483,23 @@
       <c r="O95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P95" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q95" s="1">
+      <c r="P95" s="1">
+        <v>200296</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R95" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T95" s="1">
         <v>10101</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44309</v>
       </c>
@@ -12661,14 +13545,23 @@
       <c r="O96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P96" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q96" s="1">
+      <c r="P96" s="1">
+        <v>200297</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R96" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T96" s="1">
         <v>2301</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44309</v>
       </c>
@@ -12714,14 +13607,23 @@
       <c r="O97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P97" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q97" s="1">
+      <c r="P97" s="1">
+        <v>200298</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R97" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T97" s="1">
         <v>2102</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44309</v>
       </c>
@@ -12767,14 +13669,23 @@
       <c r="O98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P98" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q98" s="1">
+      <c r="P98" s="1">
+        <v>200299</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R98" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T98" s="1">
         <v>10109</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44309</v>
       </c>
@@ -12820,14 +13731,23 @@
       <c r="O99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P99" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q99" s="1">
+      <c r="P99" s="1">
+        <v>200300</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R99" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T99" s="1">
         <v>10109</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44309</v>
       </c>
@@ -12873,14 +13793,23 @@
       <c r="O100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P100" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q100" s="1">
+      <c r="P100" s="1">
+        <v>200301</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R100" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T100" s="1">
         <v>4106</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44309</v>
       </c>
@@ -12926,14 +13855,23 @@
       <c r="O101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P101" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q101" s="1">
+      <c r="P101" s="1">
+        <v>200302</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R101" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T101" s="1">
         <v>4204</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44309</v>
       </c>
@@ -12979,14 +13917,23 @@
       <c r="O102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P102" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q102" s="1">
+      <c r="P102" s="1">
+        <v>200303</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R102" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T102" s="1">
         <v>10106</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44309</v>
       </c>
@@ -13032,14 +13979,23 @@
       <c r="O103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q103" s="1">
+      <c r="P103" s="1">
+        <v>200304</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R103" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T103" s="1">
         <v>10102</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44309</v>
       </c>
@@ -13085,14 +14041,23 @@
       <c r="O104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P104" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q104" s="1">
+      <c r="P104" s="1">
+        <v>200305</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R104" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T104" s="1">
         <v>10107</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44309</v>
       </c>
@@ -13138,14 +14103,23 @@
       <c r="O105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P105" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q105" s="1">
+      <c r="P105" s="1">
+        <v>200306</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R105" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T105" s="1">
         <v>1401</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44309</v>
       </c>
@@ -13191,14 +14165,23 @@
       <c r="O106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P106" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q106" s="1">
+      <c r="P106" s="1">
+        <v>200307</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R106" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T106" s="1">
         <v>10108</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44309</v>
       </c>
@@ -13244,14 +14227,23 @@
       <c r="O107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P107" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q107" s="1">
+      <c r="P107" s="1">
+        <v>200308</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R107" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T107" s="1">
         <v>10403</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44309</v>
       </c>
@@ -13297,14 +14289,23 @@
       <c r="O108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P108" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q108" s="1">
+      <c r="P108" s="1">
+        <v>200309</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R108" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T108" s="1">
         <v>1101</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44309</v>
       </c>
@@ -13350,14 +14351,23 @@
       <c r="O109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P109" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q109" s="1">
+      <c r="P109" s="1">
+        <v>200310</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R109" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T109" s="1">
         <v>11201</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44309</v>
       </c>
@@ -13403,14 +14413,23 @@
       <c r="O110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P110" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q110" s="1">
+      <c r="P110" s="1">
+        <v>200311</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R110" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T110" s="1">
         <v>10301</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44309</v>
       </c>
@@ -13456,14 +14475,23 @@
       <c r="O111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P111" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q111" s="1">
+      <c r="P111" s="1">
+        <v>200312</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R111" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T111" s="1">
         <v>1405</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44309</v>
       </c>
@@ -13509,14 +14537,23 @@
       <c r="O112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P112" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q112" s="1">
+      <c r="P112" s="1">
+        <v>200313</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R112" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T112" s="1">
         <v>10105</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44309</v>
       </c>
@@ -13562,14 +14599,23 @@
       <c r="O113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P113" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q113" s="1">
+      <c r="P113" s="1">
+        <v>200314</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R113" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T113" s="1">
         <v>10104</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44309</v>
       </c>
@@ -13615,14 +14661,23 @@
       <c r="O114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P114" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q114" s="1">
+      <c r="P114" s="1">
+        <v>200315</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R114" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T114" s="1">
         <v>1107</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44309</v>
       </c>
@@ -13668,14 +14723,23 @@
       <c r="O115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P115" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q115" s="1">
+      <c r="P115" s="1">
+        <v>200316</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R115" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T115" s="1">
         <v>10301</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44309</v>
       </c>
@@ -13721,14 +14785,23 @@
       <c r="O116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P116" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q116" s="1">
+      <c r="P116" s="1">
+        <v>200317</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R116" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T116" s="1">
         <v>10303</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44309</v>
       </c>
@@ -13774,14 +14847,23 @@
       <c r="O117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P117" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q117" s="1">
+      <c r="P117" s="1">
+        <v>200318</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R117" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T117" s="1">
         <v>12401</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44309</v>
       </c>
@@ -13827,14 +14909,23 @@
       <c r="O118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P118" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q118" s="1">
+      <c r="P118" s="1">
+        <v>200319</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R118" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T118" s="1">
         <v>2201</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44309</v>
       </c>
@@ -13880,14 +14971,23 @@
       <c r="O119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P119" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q119" s="1">
+      <c r="P119" s="1">
+        <v>200320</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R119" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T119" s="1">
         <v>2101</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44309</v>
       </c>
@@ -13933,14 +15033,23 @@
       <c r="O120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P120" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q120" s="1">
+      <c r="P120" s="1">
+        <v>200321</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R120" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T120" s="1">
         <v>2101</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44309</v>
       </c>
@@ -13986,14 +15095,23 @@
       <c r="O121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P121" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q121" s="1">
+      <c r="P121" s="1">
+        <v>200322</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R121" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T121" s="1">
         <v>2101</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44309</v>
       </c>
@@ -14039,14 +15157,23 @@
       <c r="O122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P122" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q122" s="1">
+      <c r="P122" s="1">
+        <v>200323</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R122" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T122" s="1">
         <v>9112</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44309</v>
       </c>
@@ -14092,14 +15219,23 @@
       <c r="O123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P123" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q123" s="1">
+      <c r="P123" s="1">
+        <v>200324</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R123" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T123" s="1">
         <v>9201</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44309</v>
       </c>
@@ -14145,14 +15281,23 @@
       <c r="O124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P124" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q124" s="1">
+      <c r="P124" s="1">
+        <v>200325</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R124" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T124" s="1">
         <v>9115</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44309</v>
       </c>
@@ -14198,14 +15343,23 @@
       <c r="O125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P125" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q125" s="1">
+      <c r="P125" s="1">
+        <v>200326</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R125" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T125" s="1">
         <v>9210</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44309</v>
       </c>
@@ -14251,14 +15405,23 @@
       <c r="O126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P126" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q126" s="1">
+      <c r="P126" s="1">
+        <v>200327</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R126" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T126" s="1">
         <v>9203</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44309</v>
       </c>
@@ -14304,14 +15467,23 @@
       <c r="O127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P127" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q127" s="1">
+      <c r="P127" s="1">
+        <v>200328</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R127" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T127" s="1">
         <v>9111</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44309</v>
       </c>
@@ -14357,14 +15529,23 @@
       <c r="O128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P128" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q128" s="1">
+      <c r="P128" s="1">
+        <v>200329</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R128" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T128" s="1">
         <v>9102</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44309</v>
       </c>
@@ -14410,14 +15591,23 @@
       <c r="O129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P129" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q129" s="1">
+      <c r="P129" s="1">
+        <v>200330</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R129" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T129" s="1">
         <v>9120</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44309</v>
       </c>
@@ -14463,14 +15653,23 @@
       <c r="O130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P130" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q130" s="1">
+      <c r="P130" s="1">
+        <v>200331</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R130" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T130" s="1">
         <v>9108</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44309</v>
       </c>
@@ -14516,14 +15715,23 @@
       <c r="O131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P131" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q131" s="1">
+      <c r="P131" s="1">
+        <v>200332</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R131" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T131" s="1">
         <v>9202</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44309</v>
       </c>
@@ -14569,14 +15777,23 @@
       <c r="O132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P132" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q132" s="1">
+      <c r="P132" s="1">
+        <v>200333</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R132" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T132" s="1">
         <v>4301</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44309</v>
       </c>
@@ -14622,14 +15839,23 @@
       <c r="O133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P133" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q133" s="1">
+      <c r="P133" s="1">
+        <v>200334</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R133" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T133" s="1">
         <v>4102</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44309</v>
       </c>
@@ -14675,14 +15901,23 @@
       <c r="O134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P134" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q134" s="1">
+      <c r="P134" s="1">
+        <v>200335</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R134" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T134" s="1">
         <v>6307</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44309</v>
       </c>
@@ -14728,14 +15963,23 @@
       <c r="O135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P135" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q135" s="1">
+      <c r="P135" s="1">
+        <v>200336</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R135" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T135" s="1">
         <v>6105</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>44309</v>
       </c>
@@ -14781,14 +16025,23 @@
       <c r="O136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P136" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q136" s="1">
+      <c r="P136" s="1">
+        <v>200337</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R136" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T136" s="1">
         <v>6105</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>44309</v>
       </c>
@@ -14834,14 +16087,23 @@
       <c r="O137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P137" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q137" s="1">
+      <c r="P137" s="1">
+        <v>200338</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R137" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T137" s="1">
         <v>6203</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>44309</v>
       </c>
@@ -14887,14 +16149,23 @@
       <c r="O138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P138" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q138" s="1">
+      <c r="P138" s="1">
+        <v>200339</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R138" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T138" s="1">
         <v>6204</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>44309</v>
       </c>
@@ -14940,14 +16211,23 @@
       <c r="O139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P139" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q139" s="1">
+      <c r="P139" s="1">
+        <v>200340</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R139" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T139" s="1">
         <v>6305</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>44309</v>
       </c>
@@ -14993,14 +16273,23 @@
       <c r="O140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P140" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q140" s="1">
+      <c r="P140" s="1">
+        <v>200341</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R140" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T140" s="1">
         <v>6205</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>44309</v>
       </c>
@@ -15046,14 +16335,23 @@
       <c r="O141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P141" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q141" s="1">
+      <c r="P141" s="1">
+        <v>200342</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R141" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T141" s="1">
         <v>6301</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>44309</v>
       </c>
@@ -15099,14 +16397,23 @@
       <c r="O142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P142" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q142" s="1">
+      <c r="P142" s="1">
+        <v>200343</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R142" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T142" s="1">
         <v>6110</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>44309</v>
       </c>
@@ -15152,14 +16459,23 @@
       <c r="O143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P143" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q143" s="1">
+      <c r="P143" s="1">
+        <v>200344</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R143" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T143" s="1">
         <v>6113</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>44309</v>
       </c>
@@ -15205,14 +16521,23 @@
       <c r="O144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P144" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q144" s="1">
+      <c r="P144" s="1">
+        <v>200345</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R144" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T144" s="1">
         <v>6112</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>44309</v>
       </c>
@@ -15258,14 +16583,23 @@
       <c r="O145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P145" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q145" s="1">
+      <c r="P145" s="1">
+        <v>200346</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R145" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T145" s="1">
         <v>6101</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>44309</v>
       </c>
@@ -15311,14 +16645,23 @@
       <c r="O146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P146" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q146" s="1">
+      <c r="P146" s="1">
+        <v>200347</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R146" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T146" s="1">
         <v>6107</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>44309</v>
       </c>
@@ -15364,14 +16707,23 @@
       <c r="O147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P147" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q147" s="1">
+      <c r="P147" s="1">
+        <v>200348</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R147" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T147" s="1">
         <v>6106</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>44309</v>
       </c>
@@ -15417,14 +16769,23 @@
       <c r="O148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P148" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q148" s="1">
+      <c r="P148" s="1">
+        <v>200349</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R148" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T148" s="1">
         <v>6310</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>44309</v>
       </c>
@@ -15470,14 +16831,23 @@
       <c r="O149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P149" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q149" s="1">
+      <c r="P149" s="1">
+        <v>200350</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R149" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T149" s="1">
         <v>7405</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>44309</v>
       </c>
@@ -15523,14 +16893,23 @@
       <c r="O150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P150" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q150" s="1">
+      <c r="P150" s="1">
+        <v>200351</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R150" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T150" s="1">
         <v>7403</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44309</v>
       </c>
@@ -15576,14 +16955,23 @@
       <c r="O151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P151" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q151" s="1">
+      <c r="P151" s="1">
+        <v>200352</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R151" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T151" s="1">
         <v>7302</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44309</v>
       </c>
@@ -15629,14 +17017,23 @@
       <c r="O152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P152" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q152" s="1">
+      <c r="P152" s="1">
+        <v>200353</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R152" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T152" s="1">
         <v>7308</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44309</v>
       </c>
@@ -15682,14 +17079,23 @@
       <c r="O153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P153" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q153" s="1">
+      <c r="P153" s="1">
+        <v>200354</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R153" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T153" s="1">
         <v>7109</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44309</v>
       </c>
@@ -15735,14 +17141,23 @@
       <c r="O154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P154" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q154" s="1">
+      <c r="P154" s="1">
+        <v>200355</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R154" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T154" s="1">
         <v>7304</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44309</v>
       </c>
@@ -15788,14 +17203,23 @@
       <c r="O155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P155" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q155" s="1">
+      <c r="P155" s="1">
+        <v>200356</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R155" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T155" s="1">
         <v>7404</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44309</v>
       </c>
@@ -15841,14 +17265,23 @@
       <c r="O156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P156" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q156" s="1">
+      <c r="P156" s="1">
+        <v>200357</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R156" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T156" s="1">
         <v>7201</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44309</v>
       </c>
@@ -15894,14 +17327,23 @@
       <c r="O157" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P157" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q157" s="1">
+      <c r="P157" s="1">
+        <v>200358</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R157" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T157" s="1">
         <v>7401</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44309</v>
       </c>
@@ -15947,14 +17389,23 @@
       <c r="O158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P158" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q158" s="1">
+      <c r="P158" s="1">
+        <v>200359</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R158" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T158" s="1">
         <v>7301</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>44309</v>
       </c>
@@ -16000,14 +17451,23 @@
       <c r="O159" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P159" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q159" s="1">
+      <c r="P159" s="1">
+        <v>200360</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R159" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T159" s="1">
         <v>7301</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>44309</v>
       </c>
@@ -16053,14 +17513,23 @@
       <c r="O160" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P160" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q160" s="1">
+      <c r="P160" s="1">
+        <v>200361</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R160" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T160" s="1">
         <v>4203</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>44309</v>
       </c>
@@ -16106,14 +17575,23 @@
       <c r="O161" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P161" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q161" s="1">
+      <c r="P161" s="1">
+        <v>200362</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R161" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T161" s="1">
         <v>7101</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>44309</v>
       </c>
@@ -16159,14 +17637,23 @@
       <c r="O162" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P162" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q162" s="1">
+      <c r="P162" s="1">
+        <v>200363</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R162" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T162" s="1">
         <v>7101</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>44309</v>
       </c>
@@ -16212,14 +17699,23 @@
       <c r="O163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P163" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q163" s="1">
+      <c r="P163" s="1">
+        <v>200364</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R163" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T163" s="1">
         <v>11301</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44309</v>
       </c>
@@ -16265,14 +17761,23 @@
       <c r="O164" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P164" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q164" s="1">
+      <c r="P164" s="1">
+        <v>200365</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R164" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T164" s="1">
         <v>6115</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>44309</v>
       </c>
@@ -16318,14 +17823,23 @@
       <c r="O165" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P165" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q165" s="1">
+      <c r="P165" s="1">
+        <v>200366</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R165" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T165" s="1">
         <v>10301</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>44309</v>
       </c>
@@ -16371,14 +17885,23 @@
       <c r="O166" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P166" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q166" s="1">
+      <c r="P166" s="1">
+        <v>200367</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R166" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T166" s="1">
         <v>3101</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>44309</v>
       </c>
@@ -16424,14 +17947,23 @@
       <c r="O167" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P167" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q167" s="1">
+      <c r="P167" s="1">
+        <v>200368</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R167" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T167" s="1">
         <v>6304</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>44309</v>
       </c>
@@ -16477,14 +18009,23 @@
       <c r="O168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P168" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q168" s="1">
+      <c r="P168" s="1">
+        <v>200369</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R168" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T168" s="1">
         <v>14106</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>44309</v>
       </c>
@@ -16530,14 +18071,23 @@
       <c r="O169" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P169" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q169" s="1">
+      <c r="P169" s="1">
+        <v>200370</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R169" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T169" s="1">
         <v>2104</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>44309</v>
       </c>
@@ -16583,14 +18133,23 @@
       <c r="O170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P170" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q170" s="1">
+      <c r="P170" s="1">
+        <v>200371</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R170" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T170" s="1">
         <v>8206</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>44309</v>
       </c>
@@ -16636,14 +18195,23 @@
       <c r="O171" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P171" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q171" s="1">
+      <c r="P171" s="1">
+        <v>200372</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R171" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T171" s="1">
         <v>13107</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>44309</v>
       </c>
@@ -16689,14 +18257,23 @@
       <c r="O172" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P172" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q172" s="1">
+      <c r="P172" s="1">
+        <v>200373</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R172" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T172" s="1">
         <v>5804</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>44309</v>
       </c>
@@ -16742,14 +18319,23 @@
       <c r="O173" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P173" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q173" s="1">
+      <c r="P173" s="1">
+        <v>200374</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R173" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T173" s="1">
         <v>5303</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44309</v>
       </c>
@@ -16795,14 +18381,23 @@
       <c r="O174" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P174" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q174" s="1">
+      <c r="P174" s="1">
+        <v>200375</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R174" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T174" s="1">
         <v>10305</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44309</v>
       </c>
@@ -16848,14 +18443,23 @@
       <c r="O175" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P175" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q175" s="1">
+      <c r="P175" s="1">
+        <v>200376</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R175" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T175" s="1">
         <v>10304</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44309</v>
       </c>
@@ -16901,14 +18505,23 @@
       <c r="O176" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P176" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q176" s="1">
+      <c r="P176" s="1">
+        <v>200377</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R176" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T176" s="1">
         <v>9109</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44309</v>
       </c>
@@ -16954,14 +18567,23 @@
       <c r="O177" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P177" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q177" s="1">
+      <c r="P177" s="1">
+        <v>200378</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R177" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T177" s="1">
         <v>5501</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44309</v>
       </c>
@@ -17007,14 +18629,23 @@
       <c r="O178" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P178" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q178" s="1">
+      <c r="P178" s="1">
+        <v>200379</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R178" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T178" s="1">
         <v>5109</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44309</v>
       </c>
@@ -17060,14 +18691,23 @@
       <c r="O179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P179" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q179" s="1">
+      <c r="P179" s="1">
+        <v>200380</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R179" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T179" s="1">
         <v>5801</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44309</v>
       </c>
@@ -17113,14 +18753,23 @@
       <c r="O180" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P180" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q180" s="1">
+      <c r="P180" s="1">
+        <v>200381</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R180" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T180" s="1">
         <v>7102</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44309</v>
       </c>
@@ -17160,14 +18809,23 @@
       <c r="O181" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P181" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q181" s="1">
+      <c r="P181" s="1">
+        <v>200382</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R181" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T181" s="1">
         <v>13125</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44309</v>
       </c>
@@ -17213,14 +18871,23 @@
       <c r="O182" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P182" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q182" s="1">
+      <c r="P182" s="1">
+        <v>200383</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R182" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T182" s="1">
         <v>13603</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>44309</v>
       </c>
@@ -17266,14 +18933,23 @@
       <c r="O183" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P183" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q183" s="1">
+      <c r="P183" s="1">
+        <v>200384</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R183" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T183" s="1">
         <v>10209</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>44309</v>
       </c>
@@ -17319,14 +18995,23 @@
       <c r="O184" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P184" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q184" s="1">
+      <c r="P184" s="1">
+        <v>200385</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R184" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T184" s="1">
         <v>5506</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>44309</v>
       </c>
@@ -17366,14 +19051,23 @@
       <c r="O185" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P185" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q185" s="1">
+      <c r="P185" s="1">
+        <v>200386</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R185" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T185" s="1">
         <v>7406</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>44309</v>
       </c>
@@ -17419,14 +19113,23 @@
       <c r="O186" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P186" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q186" s="1">
+      <c r="P186" s="1">
+        <v>200387</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R186" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T186" s="1">
         <v>10402</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>44309</v>
       </c>
@@ -17466,14 +19169,23 @@
       <c r="O187" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P187" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q187" s="1">
+      <c r="P187" s="1">
+        <v>200388</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R187" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T187" s="1">
         <v>6108</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>44309</v>
       </c>
@@ -17519,14 +19231,23 @@
       <c r="O188" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P188" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q188" s="1">
+      <c r="P188" s="1">
+        <v>200389</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R188" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T188" s="1">
         <v>5501</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>44309</v>
       </c>
@@ -17572,14 +19293,23 @@
       <c r="O189" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P189" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q189" s="1">
+      <c r="P189" s="1">
+        <v>200390</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R189" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T189" s="1">
         <v>5804</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>44309</v>
       </c>
@@ -17625,14 +19355,23 @@
       <c r="O190" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P190" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q190" s="1">
+      <c r="P190" s="1">
+        <v>200391</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R190" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T190" s="1">
         <v>13501</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>44309</v>
       </c>
@@ -17678,14 +19417,23 @@
       <c r="O191" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P191" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q191" s="1">
+      <c r="P191" s="1">
+        <v>200392</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R191" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T191" s="1">
         <v>5801</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>44309</v>
       </c>
@@ -17731,14 +19479,23 @@
       <c r="O192" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P192" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q192" s="1">
+      <c r="P192" s="1">
+        <v>200393</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R192" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T192" s="1">
         <v>16101</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>44309</v>
       </c>
@@ -17778,14 +19535,23 @@
       <c r="O193" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P193" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q193" s="1">
+      <c r="P193" s="1">
+        <v>200394</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R193" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T193" s="1">
         <v>6114</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>44309</v>
       </c>
@@ -17831,14 +19597,23 @@
       <c r="O194" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P194" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q194" s="1">
+      <c r="P194" s="1">
+        <v>200395</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R194" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T194" s="1">
         <v>10207</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>44309</v>
       </c>
@@ -17884,14 +19659,23 @@
       <c r="O195" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P195" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q195" s="1">
+      <c r="P195" s="1">
+        <v>200396</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R195" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T195" s="1">
         <v>10101</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>44309</v>
       </c>
@@ -17937,14 +19721,23 @@
       <c r="O196" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P196" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q196" s="1">
+      <c r="P196" s="1">
+        <v>200397</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R196" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T196" s="1">
         <v>5604</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>44309</v>
       </c>
@@ -17990,14 +19783,23 @@
       <c r="O197" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P197" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q197" s="1">
+      <c r="P197" s="1">
+        <v>200398</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R197" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T197" s="1">
         <v>9107</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>44309</v>
       </c>
@@ -18043,14 +19845,23 @@
       <c r="O198" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P198" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q198" s="1">
+      <c r="P198" s="1">
+        <v>200399</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R198" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T198" s="1">
         <v>5503</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>44309</v>
       </c>
@@ -18096,14 +19907,23 @@
       <c r="O199" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P199" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q199" s="1">
+      <c r="P199" s="1">
+        <v>200400</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R199" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T199" s="1">
         <v>14202</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>44309</v>
       </c>
@@ -18149,14 +19969,23 @@
       <c r="O200" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P200" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q200" s="1">
+      <c r="P200" s="1">
+        <v>200401</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R200" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T200" s="1">
         <v>5101</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>44309</v>
       </c>
@@ -18202,14 +20031,23 @@
       <c r="O201" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P201" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q201" s="1">
+      <c r="P201" s="1">
+        <v>200402</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R201" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T201" s="1">
         <v>6102</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>44309</v>
       </c>
@@ -18249,14 +20087,23 @@
       <c r="O202" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P202" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q202" s="1">
+      <c r="P202" s="1">
+        <v>200403</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R202" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T202" s="1">
         <v>5801</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>44309</v>
       </c>
@@ -18296,14 +20143,23 @@
       <c r="O203" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P203" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q203" s="1">
+      <c r="P203" s="1">
+        <v>200404</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R203" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T203" s="1">
         <v>6303</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>44309</v>
       </c>
@@ -18349,14 +20205,23 @@
       <c r="O204" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P204" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q204" s="1">
+      <c r="P204" s="1">
+        <v>200405</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R204" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T204" s="1">
         <v>9119</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>44309</v>
       </c>
@@ -18402,14 +20267,23 @@
       <c r="O205" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P205" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q205" s="1">
+      <c r="P205" s="1">
+        <v>200406</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R205" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T205" s="1">
         <v>8303</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>44309</v>
       </c>
@@ -18449,14 +20323,23 @@
       <c r="O206" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P206" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q206" s="1">
+      <c r="P206" s="1">
+        <v>200407</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R206" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T206" s="1">
         <v>3304</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>44309</v>
       </c>
@@ -18496,14 +20379,23 @@
       <c r="O207" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P207" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q207" s="1">
+      <c r="P207" s="1">
+        <v>200408</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R207" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T207" s="1">
         <v>5606</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>44309</v>
       </c>
@@ -18543,14 +20435,23 @@
       <c r="O208" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P208" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q208" s="1">
+      <c r="P208" s="1">
+        <v>200409</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R208" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T208" s="1">
         <v>5801</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>44309</v>
       </c>
@@ -18596,14 +20497,23 @@
       <c r="O209" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P209" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q209" s="1">
+      <c r="P209" s="1">
+        <v>200410</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R209" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T209" s="1">
         <v>10109</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>44309</v>
       </c>
@@ -18649,14 +20559,23 @@
       <c r="O210" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P210" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q210" s="1">
+      <c r="P210" s="1">
+        <v>200411</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R210" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T210" s="1">
         <v>8312</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>44309</v>
       </c>
@@ -18696,14 +20615,23 @@
       <c r="O211" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P211" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q211" s="1">
+      <c r="P211" s="1">
+        <v>200412</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R211" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T211" s="1">
         <v>5803</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>44309</v>
       </c>
@@ -18743,14 +20671,23 @@
       <c r="O212" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P212" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q212" s="1">
+      <c r="P212" s="1">
+        <v>200413</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R212" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T212" s="1">
         <v>9114</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>44309</v>
       </c>
@@ -18790,14 +20727,23 @@
       <c r="O213" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P213" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q213" s="1">
+      <c r="P213" s="1">
+        <v>200414</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R213" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S213" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T213" s="1">
         <v>4201</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>44309</v>
       </c>
@@ -18837,14 +20783,23 @@
       <c r="O214" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P214" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q214" s="1">
+      <c r="P214" s="1">
+        <v>200415</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R214" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T214" s="1">
         <v>5602</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>44309</v>
       </c>
@@ -18884,14 +20839,23 @@
       <c r="O215" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P215" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q215" s="1">
+      <c r="P215" s="1">
+        <v>200416</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R215" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T215" s="1">
         <v>6109</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>44309</v>
       </c>
@@ -18931,14 +20895,23 @@
       <c r="O216" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P216" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q216" s="1">
+      <c r="P216" s="1">
+        <v>200417</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R216" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S216" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T216" s="1">
         <v>11101</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>44309</v>
       </c>
@@ -18978,14 +20951,23 @@
       <c r="O217" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P217" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q217" s="1">
+      <c r="P217" s="1">
+        <v>200418</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R217" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T217" s="1">
         <v>6104</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>44309</v>
       </c>
@@ -19031,14 +21013,23 @@
       <c r="O218" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P218" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q218" s="1">
+      <c r="P218" s="1">
+        <v>200419</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R218" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T218" s="1">
         <v>13117</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>44309</v>
       </c>
@@ -19078,14 +21069,23 @@
       <c r="O219" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P219" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q219" s="1">
+      <c r="P219" s="1">
+        <v>200420</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R219" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S219" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T219" s="1">
         <v>10302</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>44309</v>
       </c>
@@ -19131,14 +21131,23 @@
       <c r="O220" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P220" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q220" s="1">
+      <c r="P220" s="1">
+        <v>200421</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R220" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S220" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T220" s="1">
         <v>16301</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>44309</v>
       </c>
@@ -19184,14 +21193,23 @@
       <c r="O221" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P221" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q221" s="1">
+      <c r="P221" s="1">
+        <v>200422</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R221" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S221" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T221" s="1">
         <v>12101</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>44309</v>
       </c>
@@ -19231,14 +21249,23 @@
       <c r="O222" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P222" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q222" s="1">
+      <c r="P222" s="1">
+        <v>200423</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R222" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S222" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T222" s="1">
         <v>5101</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>44309</v>
       </c>
@@ -19284,14 +21311,23 @@
       <c r="O223" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P223" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q223" s="1">
+      <c r="P223" s="1">
+        <v>200424</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R223" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S223" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T223" s="1">
         <v>5102</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>44309</v>
       </c>
@@ -19331,14 +21367,23 @@
       <c r="O224" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P224" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q224" s="1">
+      <c r="P224" s="1">
+        <v>200425</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R224" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S224" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T224" s="1">
         <v>5601</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>44309</v>
       </c>
@@ -19384,14 +21429,23 @@
       <c r="O225" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P225" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q225" s="1">
+      <c r="P225" s="1">
+        <v>200426</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R225" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S225" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T225" s="1">
         <v>16302</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>44309</v>
       </c>
@@ -19437,14 +21491,23 @@
       <c r="O226" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P226" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q226" s="1">
+      <c r="P226" s="1">
+        <v>200427</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R226" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S226" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T226" s="1">
         <v>14104</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>44309</v>
       </c>
@@ -19484,14 +21547,23 @@
       <c r="O227" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P227" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q227" s="1">
+      <c r="P227" s="1">
+        <v>200428</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R227" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S227" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T227" s="1">
         <v>6201</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>44309</v>
       </c>
@@ -19531,14 +21603,23 @@
       <c r="O228" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P228" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q228" s="1">
+      <c r="P228" s="1">
+        <v>200429</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R228" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S228" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T228" s="1">
         <v>6117</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>44309</v>
       </c>
@@ -19584,14 +21665,23 @@
       <c r="O229" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P229" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q229" s="1">
+      <c r="P229" s="1">
+        <v>200430</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R229" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S229" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T229" s="1">
         <v>9211</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>44309</v>
       </c>
@@ -19637,14 +21727,23 @@
       <c r="O230" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P230" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q230" s="1">
+      <c r="P230" s="1">
+        <v>200431</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R230" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S230" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T230" s="1">
         <v>13401</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>44309</v>
       </c>
@@ -19684,14 +21783,23 @@
       <c r="O231" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P231" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q231" s="1">
+      <c r="P231" s="1">
+        <v>200432</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R231" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S231" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T231" s="1">
         <v>5603</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>44309</v>
       </c>
@@ -19737,14 +21845,23 @@
       <c r="O232" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P232" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q232" s="1">
+      <c r="P232" s="1">
+        <v>200433</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R232" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T232" s="1">
         <v>13604</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>44309</v>
       </c>
@@ -19784,14 +21901,23 @@
       <c r="O233" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P233" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q233" s="1">
+      <c r="P233" s="1">
+        <v>200434</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R233" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S233" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T233" s="1">
         <v>6116</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>44309</v>
       </c>
@@ -19831,14 +21957,23 @@
       <c r="O234" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P234" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q234" s="1">
+      <c r="P234" s="1">
+        <v>200435</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R234" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S234" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T234" s="1">
         <v>5501</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>44309</v>
       </c>
@@ -19884,14 +22019,23 @@
       <c r="O235" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P235" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q235" s="1">
+      <c r="P235" s="1">
+        <v>200436</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R235" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S235" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T235" s="1">
         <v>8301</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>44309</v>
       </c>
@@ -19937,14 +22081,23 @@
       <c r="O236" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P236" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q236" s="1">
+      <c r="P236" s="1">
+        <v>200437</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R236" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T236" s="1">
         <v>9120</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>44309</v>
       </c>
@@ -19984,14 +22137,23 @@
       <c r="O237" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P237" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q237" s="1">
+      <c r="P237" s="1">
+        <v>200438</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R237" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S237" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T237" s="1">
         <v>10203</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>44309</v>
       </c>
@@ -20037,14 +22199,24 @@
       <c r="O238" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P238" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q238" s="1">
+      <c r="P238" s="1">
+        <v>200439</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R238" s="1">
+        <v>200203001</v>
+      </c>
+      <c r="S238" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T238" s="1">
         <v>13102</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Salud/2.3.xlsx
+++ b/Salud/2.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Salud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E781DB-EDCF-4C2E-9E9B-1672C572AD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B21CD3E-47BF-415D-BC19-714DE093EE6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C0182A6B-9F89-8848-8213-AEC29DB807E7}"/>
   </bookViews>
@@ -7585,7 +7585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC53C1F4-B8BC-6345-8320-76919E2D8225}">
   <dimension ref="A1:T238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
